--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.30975589121097</v>
+        <v>4.460132666666667</v>
       </c>
       <c r="H2">
-        <v>3.30975589121097</v>
+        <v>13.380398</v>
       </c>
       <c r="I2">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="J2">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>292.7298739408161</v>
+        <v>441.3155159720507</v>
       </c>
       <c r="R2">
-        <v>292.7298739408161</v>
+        <v>3971.839643748456</v>
       </c>
       <c r="S2">
-        <v>0.003959723047697487</v>
+        <v>0.005611599697300453</v>
       </c>
       <c r="T2">
-        <v>0.003959723047697487</v>
+        <v>0.005611599697300453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.30975589121097</v>
+        <v>4.460132666666667</v>
       </c>
       <c r="H3">
-        <v>3.30975589121097</v>
+        <v>13.380398</v>
       </c>
       <c r="I3">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="J3">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>538.9522550235736</v>
+        <v>727.0294365672651</v>
       </c>
       <c r="R3">
-        <v>538.9522550235736</v>
+        <v>6543.264929105386</v>
       </c>
       <c r="S3">
-        <v>0.007290344634442226</v>
+        <v>0.009244628884581899</v>
       </c>
       <c r="T3">
-        <v>0.007290344634442226</v>
+        <v>0.009244628884581899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.30975589121097</v>
+        <v>4.460132666666667</v>
       </c>
       <c r="H4">
-        <v>3.30975589121097</v>
+        <v>13.380398</v>
       </c>
       <c r="I4">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="J4">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>204.6108849626739</v>
+        <v>291.6753116168179</v>
       </c>
       <c r="R4">
-        <v>204.6108849626739</v>
+        <v>2625.07780455136</v>
       </c>
       <c r="S4">
-        <v>0.002767747705723691</v>
+        <v>0.003708831960675068</v>
       </c>
       <c r="T4">
-        <v>0.002767747705723691</v>
+        <v>0.003708831960675069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.30975589121097</v>
+        <v>4.460132666666667</v>
       </c>
       <c r="H5">
-        <v>3.30975589121097</v>
+        <v>13.380398</v>
       </c>
       <c r="I5">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="J5">
-        <v>0.02029956817009704</v>
+        <v>0.02674725343762847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>464.390230811695</v>
+        <v>643.4758133243578</v>
       </c>
       <c r="R5">
-        <v>464.390230811695</v>
+        <v>5791.28231991922</v>
       </c>
       <c r="S5">
-        <v>0.00628175278223364</v>
+        <v>0.008182192895071052</v>
       </c>
       <c r="T5">
-        <v>0.00628175278223364</v>
+        <v>0.008182192895071053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>128.740956455536</v>
+        <v>128.9378306666667</v>
       </c>
       <c r="H6">
-        <v>128.740956455536</v>
+        <v>386.813492</v>
       </c>
       <c r="I6">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="J6">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>11386.43609769678</v>
+        <v>12757.9759441334</v>
       </c>
       <c r="R6">
-        <v>11386.43609769678</v>
+        <v>114821.7834972006</v>
       </c>
       <c r="S6">
-        <v>0.1540230002500539</v>
+        <v>0.1622255537256015</v>
       </c>
       <c r="T6">
-        <v>0.1540230002500539</v>
+        <v>0.1622255537256015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>128.740956455536</v>
+        <v>128.9378306666667</v>
       </c>
       <c r="H7">
-        <v>128.740956455536</v>
+        <v>386.813492</v>
       </c>
       <c r="I7">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="J7">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>20963.85083258096</v>
+        <v>21017.67041199942</v>
       </c>
       <c r="R7">
-        <v>20963.85083258096</v>
+        <v>189159.0337079949</v>
       </c>
       <c r="S7">
-        <v>0.2835755783745054</v>
+        <v>0.2672526767207664</v>
       </c>
       <c r="T7">
-        <v>0.2835755783745054</v>
+        <v>0.2672526767207664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>128.740956455536</v>
+        <v>128.9378306666667</v>
       </c>
       <c r="H8">
-        <v>128.740956455536</v>
+        <v>386.813492</v>
       </c>
       <c r="I8">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="J8">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>7958.835000870828</v>
+        <v>8432.03212764594</v>
       </c>
       <c r="R8">
-        <v>7958.835000870828</v>
+        <v>75888.28914881345</v>
       </c>
       <c r="S8">
-        <v>0.1076582378201048</v>
+        <v>0.1072185029137347</v>
       </c>
       <c r="T8">
-        <v>0.1076582378201048</v>
+        <v>0.1072185029137347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>128.740956455536</v>
+        <v>128.9378306666667</v>
       </c>
       <c r="H9">
-        <v>128.740956455536</v>
+        <v>386.813492</v>
       </c>
       <c r="I9">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="J9">
-        <v>0.7896007765383765</v>
+        <v>0.7732354825034408</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>18063.58065320349</v>
+        <v>18602.2214264131</v>
       </c>
       <c r="R9">
-        <v>18063.58065320349</v>
+        <v>167419.9928377179</v>
       </c>
       <c r="S9">
-        <v>0.2443439600937125</v>
+        <v>0.2365387491433381</v>
       </c>
       <c r="T9">
-        <v>0.2443439600937125</v>
+        <v>0.2365387491433382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.50663857226157</v>
+        <v>3.059082666666667</v>
       </c>
       <c r="H10">
-        <v>2.50663857226157</v>
+        <v>9.177248000000002</v>
       </c>
       <c r="I10">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="J10">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>221.6985232118875</v>
+        <v>302.6862083118507</v>
       </c>
       <c r="R10">
-        <v>221.6985232118875</v>
+        <v>2724.175874806657</v>
       </c>
       <c r="S10">
-        <v>0.0029988902061294</v>
+        <v>0.003848842321345837</v>
       </c>
       <c r="T10">
-        <v>0.0029988902061294</v>
+        <v>0.003848842321345837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.50663857226157</v>
+        <v>3.059082666666667</v>
       </c>
       <c r="H11">
-        <v>2.50663857226157</v>
+        <v>9.177248000000002</v>
       </c>
       <c r="I11">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="J11">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>408.1746676958574</v>
+        <v>498.6495500864819</v>
       </c>
       <c r="R11">
-        <v>408.1746676958574</v>
+        <v>4487.845950778337</v>
       </c>
       <c r="S11">
-        <v>0.005521331381054478</v>
+        <v>0.006340637396718055</v>
       </c>
       <c r="T11">
-        <v>0.005521331381054478</v>
+        <v>0.006340637396718056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.50663857226157</v>
+        <v>3.059082666666667</v>
       </c>
       <c r="H12">
-        <v>2.50663857226157</v>
+        <v>9.177248000000002</v>
       </c>
       <c r="I12">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="J12">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>154.9617414124035</v>
+        <v>200.0520963714845</v>
       </c>
       <c r="R12">
-        <v>154.9617414124035</v>
+        <v>1800.468867343361</v>
       </c>
       <c r="S12">
-        <v>0.002096149500293538</v>
+        <v>0.002543786118577441</v>
       </c>
       <c r="T12">
-        <v>0.002096149500293538</v>
+        <v>0.002543786118577442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.50663857226157</v>
+        <v>3.059082666666667</v>
       </c>
       <c r="H13">
-        <v>2.50663857226157</v>
+        <v>9.177248000000002</v>
       </c>
       <c r="I13">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="J13">
-        <v>0.01537384696875672</v>
+        <v>0.01834520752790531</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>351.7052324690156</v>
+        <v>441.3424115545245</v>
       </c>
       <c r="R13">
-        <v>351.7052324690156</v>
+        <v>3972.081703990721</v>
       </c>
       <c r="S13">
-        <v>0.004757475881279304</v>
+        <v>0.00561194169126397</v>
       </c>
       <c r="T13">
-        <v>0.004757475881279304</v>
+        <v>0.005611941691263971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.4882795829504</v>
+        <v>30.29400666666666</v>
       </c>
       <c r="H14">
-        <v>28.4882795829504</v>
+        <v>90.88201999999998</v>
       </c>
       <c r="I14">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="J14">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>2519.633098396449</v>
+        <v>2997.492716500826</v>
       </c>
       <c r="R14">
-        <v>2519.633098396449</v>
+        <v>26977.43444850744</v>
       </c>
       <c r="S14">
-        <v>0.03408278464082897</v>
+        <v>0.03811497355475178</v>
       </c>
       <c r="T14">
-        <v>0.03408278464082897</v>
+        <v>0.03811497355475178</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.4882795829504</v>
+        <v>30.29400666666666</v>
       </c>
       <c r="H15">
-        <v>28.4882795829504</v>
+        <v>90.88201999999998</v>
       </c>
       <c r="I15">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="J15">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>4638.959194466607</v>
+        <v>4938.111989994237</v>
       </c>
       <c r="R15">
-        <v>4638.959194466607</v>
+        <v>44443.00790994813</v>
       </c>
       <c r="S15">
-        <v>0.06275066289739674</v>
+        <v>0.0627911477058567</v>
       </c>
       <c r="T15">
-        <v>0.06275066289739674</v>
+        <v>0.06279114770585671</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.4882795829504</v>
+        <v>30.29400666666666</v>
       </c>
       <c r="H16">
-        <v>28.4882795829504</v>
+        <v>90.88201999999998</v>
       </c>
       <c r="I16">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="J16">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>1761.160728502803</v>
+        <v>1981.110091334044</v>
       </c>
       <c r="R16">
-        <v>1761.160728502803</v>
+        <v>17829.9908220064</v>
       </c>
       <c r="S16">
-        <v>0.02382301687719848</v>
+        <v>0.02519103993967225</v>
       </c>
       <c r="T16">
-        <v>0.02382301687719848</v>
+        <v>0.02519103993967226</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.4882795829504</v>
+        <v>30.29400666666666</v>
       </c>
       <c r="H17">
-        <v>28.4882795829504</v>
+        <v>90.88201999999998</v>
       </c>
       <c r="I17">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="J17">
-        <v>0.1747258083227696</v>
+        <v>0.1816720565310254</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>3997.176579120454</v>
+        <v>4370.601064038644</v>
       </c>
       <c r="R17">
-        <v>3997.176579120454</v>
+        <v>39335.4095763478</v>
       </c>
       <c r="S17">
-        <v>0.05406934390734542</v>
+        <v>0.05557489533074466</v>
       </c>
       <c r="T17">
-        <v>0.05406934390734542</v>
+        <v>0.05557489533074467</v>
       </c>
     </row>
   </sheetData>
